--- a/Artificial Intelligence/Data Analysis/Kaggle Home credit default risk/kaggle home credit.xlsx
+++ b/Artificial Intelligence/Data Analysis/Kaggle Home credit default risk/kaggle home credit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HomeCredit_columns_description" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$A$1:$N$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HomeCredit_columns_description!$A$1:$E$220</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="472">
   <si>
     <t>Table</t>
   </si>
@@ -1364,6 +1364,78 @@
   </si>
   <si>
     <t xml:space="preserve">if car flag is 1 then this column will exist, fillna=0 </t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>can be combined to create a feature is contactable through phone</t>
+  </si>
+  <si>
+    <t>can be combined to create a feature is contactable through phone -  same as FLAG_PHONE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>All of them have provided mobile number except 1</t>
+  </si>
+  <si>
+    <t>Most of them provided work phone</t>
+  </si>
+  <si>
+    <t>Most of them have not provided home phone</t>
+  </si>
+  <si>
+    <t>Most of the phones were reachable</t>
+  </si>
+  <si>
+    <t>Most of them have not provided email</t>
+  </si>
+  <si>
+    <t>occupation is a important parameter to determine wheather the person will repay the loan or not</t>
+  </si>
+  <si>
+    <t>Most of the customers are in labourers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bigger the family size, low profile occupation or education wont be able to repay the loan </t>
+  </si>
+  <si>
+    <t>Only 2 customers have 20 family members and most of them have 2</t>
+  </si>
+  <si>
+    <t>can be combined with CNT_FAM_MEMBERS</t>
+  </si>
+  <si>
+    <t>If the person is living in a porche area then he/she "may" be able to repay the loan</t>
+  </si>
+  <si>
+    <t>Most of people are from region 2</t>
+  </si>
+  <si>
+    <t>cannot understand the meaning of the description</t>
+  </si>
+  <si>
+    <t>People generally come for loan when they have holiday but bank don’t have. Assuming Sunday as holiday. So very less number of people have took loan by online mode.</t>
+  </si>
+  <si>
+    <t>Very less people have applied for loan on weakends</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>If the contact address is different from permanent address then person "may" fraud</t>
+  </si>
+  <si>
+    <t>Most of users have contact address same as permanent address</t>
+  </si>
+  <si>
+    <t>How permanent address is same as work address</t>
+  </si>
+  <si>
+    <t>Most of the client have work address as the contact address</t>
   </si>
 </sst>
 </file>
@@ -2231,16 +2303,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="255.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="255.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>377</v>
       </c>
@@ -2425,7 +2497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>378</v>
       </c>
@@ -2692,7 +2764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>378</v>
       </c>
@@ -2706,7 +2778,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>378</v>
       </c>
@@ -2720,7 +2792,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>378</v>
       </c>
@@ -2734,7 +2806,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>378</v>
       </c>
@@ -2751,7 +2823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>378</v>
       </c>
@@ -2765,7 +2837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>378</v>
       </c>
@@ -2779,7 +2851,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>378</v>
       </c>
@@ -2793,7 +2865,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>378</v>
       </c>
@@ -2807,7 +2879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>378</v>
       </c>
@@ -2821,7 +2893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>378</v>
       </c>
@@ -2835,7 +2907,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>378</v>
       </c>
@@ -2849,7 +2921,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>378</v>
       </c>
@@ -2866,7 +2938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>378</v>
       </c>
@@ -2883,7 +2955,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>378</v>
       </c>
@@ -2900,7 +2972,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>378</v>
       </c>
@@ -2917,7 +2989,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>378</v>
       </c>
@@ -2934,7 +3006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>378</v>
       </c>
@@ -2951,7 +3023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>378</v>
       </c>
@@ -2968,7 +3040,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>378</v>
       </c>
@@ -2985,7 +3057,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>378</v>
       </c>
@@ -3002,7 +3074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>378</v>
       </c>
@@ -3019,7 +3091,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>378</v>
       </c>
@@ -3036,7 +3108,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>378</v>
       </c>
@@ -3053,7 +3125,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>378</v>
       </c>
@@ -3070,7 +3142,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>378</v>
       </c>
@@ -3087,7 +3159,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>378</v>
       </c>
@@ -3104,7 +3176,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>378</v>
       </c>
@@ -3121,7 +3193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>378</v>
       </c>
@@ -3138,7 +3210,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>378</v>
       </c>
@@ -3155,7 +3227,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>378</v>
       </c>
@@ -3172,7 +3244,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>378</v>
       </c>
@@ -3189,7 +3261,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>378</v>
       </c>
@@ -3206,7 +3278,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>378</v>
       </c>
@@ -3223,7 +3295,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>378</v>
       </c>
@@ -3240,7 +3312,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>378</v>
       </c>
@@ -3257,7 +3329,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>378</v>
       </c>
@@ -3274,7 +3346,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>378</v>
       </c>
@@ -3291,7 +3363,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>378</v>
       </c>
@@ -3308,7 +3380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>378</v>
       </c>
@@ -3325,7 +3397,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>378</v>
       </c>
@@ -3342,7 +3414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>378</v>
       </c>
@@ -3359,7 +3431,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>378</v>
       </c>
@@ -3376,7 +3448,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>378</v>
       </c>
@@ -3393,7 +3465,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>378</v>
       </c>
@@ -3410,7 +3482,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>378</v>
       </c>
@@ -3427,7 +3499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>378</v>
       </c>
@@ -3444,7 +3516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>378</v>
       </c>
@@ -3461,7 +3533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>378</v>
       </c>
@@ -3478,7 +3550,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>378</v>
       </c>
@@ -3495,7 +3567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>378</v>
       </c>
@@ -3512,7 +3584,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>378</v>
       </c>
@@ -3529,7 +3601,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>378</v>
       </c>
@@ -3546,7 +3618,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>378</v>
       </c>
@@ -3563,7 +3635,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>378</v>
       </c>
@@ -3580,7 +3652,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>378</v>
       </c>
@@ -3597,7 +3669,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>378</v>
       </c>
@@ -3614,7 +3686,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>378</v>
       </c>
@@ -3631,7 +3703,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>378</v>
       </c>
@@ -3648,7 +3720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>378</v>
       </c>
@@ -3665,7 +3737,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>378</v>
       </c>
@@ -3682,7 +3754,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>378</v>
       </c>
@@ -3699,7 +3771,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>378</v>
       </c>
@@ -3713,7 +3785,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>378</v>
       </c>
@@ -3727,7 +3799,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>378</v>
       </c>
@@ -3741,7 +3813,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>378</v>
       </c>
@@ -3755,7 +3827,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>378</v>
       </c>
@@ -3769,7 +3841,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>378</v>
       </c>
@@ -3783,7 +3855,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>378</v>
       </c>
@@ -3797,7 +3869,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>378</v>
       </c>
@@ -3811,7 +3883,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>378</v>
       </c>
@@ -3825,7 +3897,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>378</v>
       </c>
@@ -3839,7 +3911,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>378</v>
       </c>
@@ -3853,7 +3925,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>378</v>
       </c>
@@ -3867,7 +3939,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>378</v>
       </c>
@@ -3881,7 +3953,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>378</v>
       </c>
@@ -3895,7 +3967,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>378</v>
       </c>
@@ -3909,7 +3981,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>378</v>
       </c>
@@ -3923,7 +3995,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>378</v>
       </c>
@@ -3937,7 +4009,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>378</v>
       </c>
@@ -3951,7 +4023,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>378</v>
       </c>
@@ -3965,7 +4037,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>378</v>
       </c>
@@ -3979,7 +4051,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>378</v>
       </c>
@@ -3993,7 +4065,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>378</v>
       </c>
@@ -4007,7 +4079,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>378</v>
       </c>
@@ -4021,7 +4093,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>378</v>
       </c>
@@ -4035,7 +4107,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>378</v>
       </c>
@@ -4049,7 +4121,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>378</v>
       </c>
@@ -4063,7 +4135,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>378</v>
       </c>
@@ -4077,7 +4149,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>378</v>
       </c>
@@ -4091,7 +4163,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>378</v>
       </c>
@@ -4105,7 +4177,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>378</v>
       </c>
@@ -4119,7 +4191,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>378</v>
       </c>
@@ -4133,7 +4205,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>381</v>
       </c>
@@ -4150,7 +4222,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>381</v>
       </c>
@@ -4167,7 +4239,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>381</v>
       </c>
@@ -4181,7 +4253,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>381</v>
       </c>
@@ -4198,7 +4270,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>381</v>
       </c>
@@ -4215,7 +4287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>381</v>
       </c>
@@ -4229,7 +4301,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>381</v>
       </c>
@@ -4246,7 +4318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>381</v>
       </c>
@@ -4263,7 +4335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>381</v>
       </c>
@@ -4277,7 +4349,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>381</v>
       </c>
@@ -4291,7 +4363,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>381</v>
       </c>
@@ -4305,7 +4377,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>381</v>
       </c>
@@ -4319,7 +4391,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>381</v>
       </c>
@@ -4333,7 +4405,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>381</v>
       </c>
@@ -4347,7 +4419,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>381</v>
       </c>
@@ -4361,7 +4433,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>381</v>
       </c>
@@ -4378,7 +4450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>381</v>
       </c>
@@ -4392,7 +4464,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>384</v>
       </c>
@@ -4409,7 +4481,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>384</v>
       </c>
@@ -4426,7 +4498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>384</v>
       </c>
@@ -4440,7 +4512,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>380</v>
       </c>
@@ -4454,7 +4526,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>380</v>
       </c>
@@ -4468,7 +4540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>380</v>
       </c>
@@ -4485,7 +4557,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>380</v>
       </c>
@@ -4499,7 +4571,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>380</v>
       </c>
@@ -4513,7 +4585,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>380</v>
       </c>
@@ -4527,7 +4599,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>380</v>
       </c>
@@ -4541,7 +4613,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>380</v>
       </c>
@@ -4555,7 +4627,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>382</v>
       </c>
@@ -4572,7 +4644,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>382</v>
       </c>
@@ -4589,7 +4661,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>382</v>
       </c>
@@ -4606,7 +4678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>382</v>
       </c>
@@ -4620,7 +4692,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>382</v>
       </c>
@@ -4634,7 +4706,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>382</v>
       </c>
@@ -4648,7 +4720,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>382</v>
       </c>
@@ -4662,7 +4734,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>382</v>
       </c>
@@ -4676,7 +4748,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>382</v>
       </c>
@@ -4690,7 +4762,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>382</v>
       </c>
@@ -4704,7 +4776,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>382</v>
       </c>
@@ -4718,7 +4790,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>382</v>
       </c>
@@ -4732,7 +4804,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>382</v>
       </c>
@@ -4746,7 +4818,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>382</v>
       </c>
@@ -4760,7 +4832,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>382</v>
       </c>
@@ -4774,7 +4846,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>382</v>
       </c>
@@ -4788,7 +4860,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>382</v>
       </c>
@@ -4802,7 +4874,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>382</v>
       </c>
@@ -4816,7 +4888,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>382</v>
       </c>
@@ -4830,7 +4902,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>382</v>
       </c>
@@ -4844,7 +4916,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>382</v>
       </c>
@@ -4858,7 +4930,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>382</v>
       </c>
@@ -4872,7 +4944,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>382</v>
       </c>
@@ -4886,7 +4958,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>383</v>
       </c>
@@ -4903,7 +4975,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>383</v>
       </c>
@@ -4920,7 +4992,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>383</v>
       </c>
@@ -4934,7 +5006,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>383</v>
       </c>
@@ -4948,7 +5020,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>383</v>
       </c>
@@ -4962,7 +5034,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>383</v>
       </c>
@@ -4976,7 +5048,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>383</v>
       </c>
@@ -4990,7 +5062,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>383</v>
       </c>
@@ -5004,7 +5076,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>383</v>
       </c>
@@ -5018,7 +5090,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -5035,7 +5107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>383</v>
       </c>
@@ -5049,7 +5121,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>383</v>
       </c>
@@ -5063,7 +5135,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>383</v>
       </c>
@@ -5077,7 +5149,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>383</v>
       </c>
@@ -5094,7 +5166,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>383</v>
       </c>
@@ -5111,7 +5183,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>383</v>
       </c>
@@ -5128,7 +5200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>383</v>
       </c>
@@ -5142,7 +5214,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>383</v>
       </c>
@@ -5156,7 +5228,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>383</v>
       </c>
@@ -5173,7 +5245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>383</v>
       </c>
@@ -5187,7 +5259,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>383</v>
       </c>
@@ -5201,7 +5273,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>383</v>
       </c>
@@ -5215,7 +5287,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>383</v>
       </c>
@@ -5229,7 +5301,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>383</v>
       </c>
@@ -5243,7 +5315,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>383</v>
       </c>
@@ -5257,7 +5329,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>383</v>
       </c>
@@ -5271,7 +5343,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>383</v>
       </c>
@@ -5285,7 +5357,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>383</v>
       </c>
@@ -5299,7 +5371,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>383</v>
       </c>
@@ -5313,7 +5385,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>383</v>
       </c>
@@ -5327,7 +5399,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>383</v>
       </c>
@@ -5344,7 +5416,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>383</v>
       </c>
@@ -5358,7 +5430,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>383</v>
       </c>
@@ -5375,7 +5447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>383</v>
       </c>
@@ -5392,7 +5464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>383</v>
       </c>
@@ -5409,7 +5481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>383</v>
       </c>
@@ -5426,7 +5498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>383</v>
       </c>
@@ -5443,7 +5515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>383</v>
       </c>
@@ -5457,7 +5529,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>379</v>
       </c>
@@ -5474,7 +5546,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>379</v>
       </c>
@@ -5491,7 +5563,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>379</v>
       </c>
@@ -5505,7 +5577,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>379</v>
       </c>
@@ -5519,7 +5591,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>379</v>
       </c>
@@ -5536,7 +5608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>379</v>
       </c>
@@ -5553,7 +5625,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>379</v>
       </c>
@@ -5567,7 +5639,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>379</v>
       </c>
@@ -5590,28 +5662,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="255.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="255.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>377</v>
       </c>
@@ -5655,7 +5727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>378</v>
       </c>
@@ -5693,7 +5765,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>378</v>
       </c>
@@ -5735,7 +5807,7 @@
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>378</v>
       </c>
@@ -5775,7 +5847,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>378</v>
       </c>
@@ -5815,7 +5887,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>378</v>
       </c>
@@ -5855,7 +5927,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>378</v>
       </c>
@@ -5895,7 +5967,7 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>378</v>
       </c>
@@ -5933,7 +6005,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>378</v>
       </c>
@@ -5971,7 +6043,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>378</v>
       </c>
@@ -6011,7 +6083,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>378</v>
       </c>
@@ -6051,7 +6123,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>378</v>
       </c>
@@ -6091,7 +6163,7 @@
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>378</v>
       </c>
@@ -6131,7 +6203,7 @@
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>378</v>
       </c>
@@ -6169,7 +6241,7 @@
       </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>378</v>
       </c>
@@ -6207,7 +6279,7 @@
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>378</v>
       </c>
@@ -6245,7 +6317,7 @@
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>378</v>
       </c>
@@ -6283,7 +6355,7 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>378</v>
       </c>
@@ -6323,7 +6395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>378</v>
       </c>
@@ -6355,7 +6427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>378</v>
       </c>
@@ -6397,7 +6469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>378</v>
       </c>
@@ -6423,7 +6495,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>378</v>
       </c>
@@ -6449,7 +6521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>378</v>
       </c>
@@ -6489,19 +6561,33 @@
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
@@ -6513,19 +6599,33 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="K25" s="3" t="s">
         <v>4</v>
       </c>
@@ -6537,19 +6637,33 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>450</v>
+      </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
@@ -6561,18 +6675,30 @@
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>455</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
         <v>4</v>
@@ -6585,19 +6711,33 @@
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>451</v>
+      </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>450</v>
+      </c>
       <c r="K28" s="3" t="s">
         <v>4</v>
       </c>
@@ -6609,18 +6749,28 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -6633,18 +6783,32 @@
       </c>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D30" s="3">
+        <v>96391</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>458</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
         <v>4</v>
@@ -6657,19 +6821,35 @@
       </c>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>461</v>
+      </c>
       <c r="K31" s="3" t="s">
         <v>4</v>
       </c>
@@ -6681,18 +6861,32 @@
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>463</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -6705,19 +6899,31 @@
       </c>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>464</v>
+      </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
@@ -6729,19 +6935,32 @@
       </c>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>465</v>
+      </c>
       <c r="K34" s="3" t="s">
         <v>4</v>
       </c>
@@ -6753,16 +6972,26 @@
       </c>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>426</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -6779,18 +7008,32 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>469</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
         <v>4</v>
@@ -6803,19 +7046,29 @@
       </c>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>470</v>
+      </c>
       <c r="K37" s="3" t="s">
         <v>4</v>
       </c>
@@ -6827,18 +7080,28 @@
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>471</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
         <v>4</v>
@@ -6851,7 +7114,7 @@
       </c>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>378</v>
       </c>
@@ -6875,7 +7138,7 @@
       </c>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>378</v>
       </c>
@@ -6899,7 +7162,7 @@
       </c>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>378</v>
       </c>
@@ -6923,7 +7186,7 @@
       </c>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>378</v>
       </c>
@@ -6947,7 +7210,7 @@
       </c>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>378</v>
       </c>
@@ -6973,7 +7236,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>378</v>
       </c>
@@ -6999,7 +7262,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>378</v>
       </c>
@@ -7025,7 +7288,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>378</v>
       </c>
@@ -7051,7 +7314,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>378</v>
       </c>
@@ -7077,7 +7340,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>378</v>
       </c>
@@ -7103,7 +7366,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>378</v>
       </c>
@@ -7129,7 +7392,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>378</v>
       </c>
@@ -7155,7 +7418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>378</v>
       </c>
@@ -7181,7 +7444,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>378</v>
       </c>
@@ -7207,7 +7470,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>378</v>
       </c>
@@ -7233,7 +7496,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>378</v>
       </c>
@@ -7259,7 +7522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>378</v>
       </c>
@@ -7285,7 +7548,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>378</v>
       </c>
@@ -7311,7 +7574,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>378</v>
       </c>
@@ -7337,7 +7600,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>378</v>
       </c>
@@ -7363,7 +7626,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>378</v>
       </c>
@@ -7389,7 +7652,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>378</v>
       </c>
@@ -7415,7 +7678,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>378</v>
       </c>
@@ -7441,7 +7704,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>378</v>
       </c>
@@ -7467,7 +7730,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>378</v>
       </c>
@@ -7493,7 +7756,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>378</v>
       </c>
@@ -7519,7 +7782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>378</v>
       </c>
@@ -7545,7 +7808,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>378</v>
       </c>
@@ -7571,7 +7834,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>378</v>
       </c>
@@ -7597,7 +7860,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>378</v>
       </c>
@@ -7623,7 +7886,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>378</v>
       </c>
@@ -7649,7 +7912,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>378</v>
       </c>
@@ -7675,7 +7938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>378</v>
       </c>
@@ -7701,7 +7964,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>378</v>
       </c>
@@ -7727,7 +7990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>378</v>
       </c>
@@ -7753,7 +8016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>378</v>
       </c>
@@ -7779,7 +8042,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>378</v>
       </c>
@@ -7805,7 +8068,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>378</v>
       </c>
@@ -7831,7 +8094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>378</v>
       </c>
@@ -7857,7 +8120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>378</v>
       </c>
@@ -7883,7 +8146,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>378</v>
       </c>
@@ -7909,7 +8172,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>378</v>
       </c>
@@ -7935,7 +8198,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>378</v>
       </c>
@@ -7961,7 +8224,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>378</v>
       </c>
@@ -7987,7 +8250,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>378</v>
       </c>
@@ -8013,7 +8276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>378</v>
       </c>
@@ -8039,7 +8302,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>378</v>
       </c>
@@ -8065,7 +8328,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>378</v>
       </c>
@@ -8091,7 +8354,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>378</v>
       </c>
@@ -8117,7 +8380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>378</v>
       </c>
@@ -8143,7 +8406,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>378</v>
       </c>
@@ -8169,7 +8432,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>378</v>
       </c>
@@ -8195,7 +8458,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>378</v>
       </c>
@@ -8221,7 +8484,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>378</v>
       </c>
@@ -8247,7 +8510,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>378</v>
       </c>
@@ -8271,7 +8534,7 @@
       </c>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>378</v>
       </c>
@@ -8295,7 +8558,7 @@
       </c>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>378</v>
       </c>
@@ -8319,7 +8582,7 @@
       </c>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>378</v>
       </c>
@@ -8343,7 +8606,7 @@
       </c>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>378</v>
       </c>
@@ -8367,7 +8630,7 @@
       </c>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>378</v>
       </c>
@@ -8391,7 +8654,7 @@
       </c>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>378</v>
       </c>
@@ -8415,7 +8678,7 @@
       </c>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>378</v>
       </c>
@@ -8439,7 +8702,7 @@
       </c>
       <c r="N100" s="3"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>378</v>
       </c>
@@ -8463,7 +8726,7 @@
       </c>
       <c r="N101" s="3"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>378</v>
       </c>
@@ -8487,7 +8750,7 @@
       </c>
       <c r="N102" s="3"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>378</v>
       </c>
@@ -8511,7 +8774,7 @@
       </c>
       <c r="N103" s="3"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>378</v>
       </c>
@@ -8535,7 +8798,7 @@
       </c>
       <c r="N104" s="3"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>378</v>
       </c>
@@ -8559,7 +8822,7 @@
       </c>
       <c r="N105" s="3"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>378</v>
       </c>
@@ -8583,7 +8846,7 @@
       </c>
       <c r="N106" s="3"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>378</v>
       </c>
@@ -8607,7 +8870,7 @@
       </c>
       <c r="N107" s="3"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>378</v>
       </c>
@@ -8631,7 +8894,7 @@
       </c>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>378</v>
       </c>
@@ -8655,7 +8918,7 @@
       </c>
       <c r="N109" s="3"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>378</v>
       </c>
@@ -8679,7 +8942,7 @@
       </c>
       <c r="N110" s="3"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>378</v>
       </c>
@@ -8703,7 +8966,7 @@
       </c>
       <c r="N111" s="3"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>378</v>
       </c>
@@ -8727,7 +8990,7 @@
       </c>
       <c r="N112" s="3"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>378</v>
       </c>
@@ -8751,7 +9014,7 @@
       </c>
       <c r="N113" s="3"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>378</v>
       </c>
@@ -8775,7 +9038,7 @@
       </c>
       <c r="N114" s="3"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>378</v>
       </c>
@@ -8799,7 +9062,7 @@
       </c>
       <c r="N115" s="3"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>378</v>
       </c>
@@ -8823,7 +9086,7 @@
       </c>
       <c r="N116" s="3"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>378</v>
       </c>
@@ -8847,7 +9110,7 @@
       </c>
       <c r="N117" s="3"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>378</v>
       </c>
@@ -8871,7 +9134,7 @@
       </c>
       <c r="N118" s="3"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>378</v>
       </c>
@@ -8895,7 +9158,7 @@
       </c>
       <c r="N119" s="3"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>378</v>
       </c>
@@ -8919,7 +9182,7 @@
       </c>
       <c r="N120" s="3"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>378</v>
       </c>
@@ -8943,7 +9206,7 @@
       </c>
       <c r="N121" s="3"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>378</v>
       </c>
@@ -8967,7 +9230,7 @@
       </c>
       <c r="N122" s="3"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>378</v>
       </c>
@@ -8991,7 +9254,7 @@
       </c>
       <c r="N123" s="3"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>381</v>
       </c>
@@ -9017,7 +9280,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>381</v>
       </c>
@@ -9043,7 +9306,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>381</v>
       </c>
@@ -9067,7 +9330,7 @@
       </c>
       <c r="N126" s="3"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>381</v>
       </c>
@@ -9093,7 +9356,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>381</v>
       </c>
@@ -9119,7 +9382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>381</v>
       </c>
@@ -9143,7 +9406,7 @@
       </c>
       <c r="N129" s="3"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>381</v>
       </c>
@@ -9169,7 +9432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>381</v>
       </c>
@@ -9195,7 +9458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>381</v>
       </c>
@@ -9219,7 +9482,7 @@
       </c>
       <c r="N132" s="3"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>381</v>
       </c>
@@ -9243,7 +9506,7 @@
       </c>
       <c r="N133" s="3"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>381</v>
       </c>
@@ -9267,7 +9530,7 @@
       </c>
       <c r="N134" s="3"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>381</v>
       </c>
@@ -9291,7 +9554,7 @@
       </c>
       <c r="N135" s="3"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>381</v>
       </c>
@@ -9315,7 +9578,7 @@
       </c>
       <c r="N136" s="3"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>381</v>
       </c>
@@ -9339,7 +9602,7 @@
       </c>
       <c r="N137" s="3"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>381</v>
       </c>
@@ -9363,7 +9626,7 @@
       </c>
       <c r="N138" s="3"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>381</v>
       </c>
@@ -9389,7 +9652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>381</v>
       </c>
@@ -9413,7 +9676,7 @@
       </c>
       <c r="N140" s="3"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>384</v>
       </c>
@@ -9439,7 +9702,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>384</v>
       </c>
@@ -9465,7 +9728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>384</v>
       </c>
@@ -9489,7 +9752,7 @@
       </c>
       <c r="N143" s="3"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>380</v>
       </c>
@@ -9513,7 +9776,7 @@
       </c>
       <c r="N144" s="3"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>380</v>
       </c>
@@ -9537,7 +9800,7 @@
       </c>
       <c r="N145" s="3"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>380</v>
       </c>
@@ -9563,7 +9826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>380</v>
       </c>
@@ -9587,7 +9850,7 @@
       </c>
       <c r="N147" s="3"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>380</v>
       </c>
@@ -9611,7 +9874,7 @@
       </c>
       <c r="N148" s="3"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>380</v>
       </c>
@@ -9635,7 +9898,7 @@
       </c>
       <c r="N149" s="3"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>380</v>
       </c>
@@ -9659,7 +9922,7 @@
       </c>
       <c r="N150" s="3"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>380</v>
       </c>
@@ -9683,7 +9946,7 @@
       </c>
       <c r="N151" s="3"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>382</v>
       </c>
@@ -9709,7 +9972,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>382</v>
       </c>
@@ -9735,7 +9998,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>382</v>
       </c>
@@ -9761,7 +10024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>382</v>
       </c>
@@ -9785,7 +10048,7 @@
       </c>
       <c r="N155" s="3"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>382</v>
       </c>
@@ -9809,7 +10072,7 @@
       </c>
       <c r="N156" s="3"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>382</v>
       </c>
@@ -9833,7 +10096,7 @@
       </c>
       <c r="N157" s="3"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>382</v>
       </c>
@@ -9857,7 +10120,7 @@
       </c>
       <c r="N158" s="3"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>382</v>
       </c>
@@ -9881,7 +10144,7 @@
       </c>
       <c r="N159" s="3"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>382</v>
       </c>
@@ -9905,7 +10168,7 @@
       </c>
       <c r="N160" s="3"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>382</v>
       </c>
@@ -9929,7 +10192,7 @@
       </c>
       <c r="N161" s="3"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>382</v>
       </c>
@@ -9953,7 +10216,7 @@
       </c>
       <c r="N162" s="3"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>382</v>
       </c>
@@ -9977,7 +10240,7 @@
       </c>
       <c r="N163" s="3"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>382</v>
       </c>
@@ -10001,7 +10264,7 @@
       </c>
       <c r="N164" s="3"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>382</v>
       </c>
@@ -10025,7 +10288,7 @@
       </c>
       <c r="N165" s="3"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>382</v>
       </c>
@@ -10049,7 +10312,7 @@
       </c>
       <c r="N166" s="3"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>382</v>
       </c>
@@ -10073,7 +10336,7 @@
       </c>
       <c r="N167" s="3"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>382</v>
       </c>
@@ -10097,7 +10360,7 @@
       </c>
       <c r="N168" s="3"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>382</v>
       </c>
@@ -10121,7 +10384,7 @@
       </c>
       <c r="N169" s="3"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>382</v>
       </c>
@@ -10145,7 +10408,7 @@
       </c>
       <c r="N170" s="3"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>382</v>
       </c>
@@ -10169,7 +10432,7 @@
       </c>
       <c r="N171" s="3"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>382</v>
       </c>
@@ -10193,7 +10456,7 @@
       </c>
       <c r="N172" s="3"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>382</v>
       </c>
@@ -10217,7 +10480,7 @@
       </c>
       <c r="N173" s="3"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>382</v>
       </c>
@@ -10241,7 +10504,7 @@
       </c>
       <c r="N174" s="3"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>383</v>
       </c>
@@ -10267,7 +10530,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>383</v>
       </c>
@@ -10293,7 +10556,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>383</v>
       </c>
@@ -10317,7 +10580,7 @@
       </c>
       <c r="N177" s="3"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>383</v>
       </c>
@@ -10341,7 +10604,7 @@
       </c>
       <c r="N178" s="3"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>383</v>
       </c>
@@ -10365,7 +10628,7 @@
       </c>
       <c r="N179" s="3"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>383</v>
       </c>
@@ -10389,7 +10652,7 @@
       </c>
       <c r="N180" s="3"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>383</v>
       </c>
@@ -10413,7 +10676,7 @@
       </c>
       <c r="N181" s="3"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>383</v>
       </c>
@@ -10437,7 +10700,7 @@
       </c>
       <c r="N182" s="3"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>383</v>
       </c>
@@ -10461,7 +10724,7 @@
       </c>
       <c r="N183" s="3"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>383</v>
       </c>
@@ -10487,7 +10750,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>383</v>
       </c>
@@ -10511,7 +10774,7 @@
       </c>
       <c r="N185" s="3"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>383</v>
       </c>
@@ -10535,7 +10798,7 @@
       </c>
       <c r="N186" s="3"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>383</v>
       </c>
@@ -10559,7 +10822,7 @@
       </c>
       <c r="N187" s="3"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>383</v>
       </c>
@@ -10585,7 +10848,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>383</v>
       </c>
@@ -10611,7 +10874,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>383</v>
       </c>
@@ -10637,7 +10900,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>383</v>
       </c>
@@ -10661,7 +10924,7 @@
       </c>
       <c r="N191" s="3"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>383</v>
       </c>
@@ -10685,7 +10948,7 @@
       </c>
       <c r="N192" s="3"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>383</v>
       </c>
@@ -10711,7 +10974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>383</v>
       </c>
@@ -10735,7 +10998,7 @@
       </c>
       <c r="N194" s="3"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>383</v>
       </c>
@@ -10759,7 +11022,7 @@
       </c>
       <c r="N195" s="3"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>383</v>
       </c>
@@ -10783,7 +11046,7 @@
       </c>
       <c r="N196" s="3"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>383</v>
       </c>
@@ -10807,7 +11070,7 @@
       </c>
       <c r="N197" s="3"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>383</v>
       </c>
@@ -10831,7 +11094,7 @@
       </c>
       <c r="N198" s="3"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>383</v>
       </c>
@@ -10855,7 +11118,7 @@
       </c>
       <c r="N199" s="3"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>383</v>
       </c>
@@ -10879,7 +11142,7 @@
       </c>
       <c r="N200" s="3"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>383</v>
       </c>
@@ -10903,7 +11166,7 @@
       </c>
       <c r="N201" s="3"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>383</v>
       </c>
@@ -10927,7 +11190,7 @@
       </c>
       <c r="N202" s="3"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>383</v>
       </c>
@@ -10951,7 +11214,7 @@
       </c>
       <c r="N203" s="3"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>383</v>
       </c>
@@ -10975,7 +11238,7 @@
       </c>
       <c r="N204" s="3"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>383</v>
       </c>
@@ -11001,7 +11264,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>383</v>
       </c>
@@ -11025,7 +11288,7 @@
       </c>
       <c r="N206" s="3"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>383</v>
       </c>
@@ -11051,7 +11314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>383</v>
       </c>
@@ -11077,7 +11340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>383</v>
       </c>
@@ -11103,7 +11366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>383</v>
       </c>
@@ -11129,7 +11392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>383</v>
       </c>
@@ -11155,7 +11418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>383</v>
       </c>
@@ -11179,7 +11442,7 @@
       </c>
       <c r="N212" s="3"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>379</v>
       </c>
@@ -11205,7 +11468,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>379</v>
       </c>
@@ -11231,7 +11494,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>379</v>
       </c>
@@ -11255,7 +11518,7 @@
       </c>
       <c r="N215" s="3"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>379</v>
       </c>
@@ -11279,7 +11542,7 @@
       </c>
       <c r="N216" s="3"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>379</v>
       </c>
@@ -11305,7 +11568,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>379</v>
       </c>
@@ -11331,7 +11594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>379</v>
       </c>
@@ -11355,7 +11618,7 @@
       </c>
       <c r="N219" s="3"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>379</v>
       </c>
@@ -11381,7 +11644,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11393,7 +11656,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
